--- a/data/trans_orig/P1434-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E508F2C-F301-45A8-9856-779670EBE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1457CA-C729-46E2-AAD4-98182A8DAC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E9FBBF9-75CC-4992-9CD7-FDB3A3A0F02E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECCFEFA4-14C8-499E-B1B1-B4F174837494}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="134">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,19 +146,19 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -167,19 +167,19 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -194,19 +194,19 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -215,13 +215,19 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -230,37 +236,37 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
@@ -272,58 +278,52 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>3,23%</t>
@@ -332,85 +332,91 @@
     <t>2,67%</t>
   </si>
   <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -419,25 +425,22 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>94,66%</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE46EA1-940D-466C-A402-5686C9DDAFD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79725282-C3D0-4DD3-8FF9-7141AFEDC988}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87F3B57-66E4-4149-A574-DA8061DEB0B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F86E5-9317-484D-BAC8-85F9CAC9D46D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1991,7 +1994,7 @@
         <v>840</v>
       </c>
       <c r="D6" s="7">
-        <v>898578</v>
+        <v>898579</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>53</v>
@@ -2019,7 +2022,7 @@
         <v>840</v>
       </c>
       <c r="N6" s="7">
-        <v>898578</v>
+        <v>898579</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>53</v>
@@ -2040,7 +2043,7 @@
         <v>907</v>
       </c>
       <c r="D7" s="7">
-        <v>972451</v>
+        <v>972452</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -2068,7 +2071,7 @@
         <v>907</v>
       </c>
       <c r="N7" s="7">
-        <v>972451</v>
+        <v>972452</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>23</v>
@@ -2149,7 +2152,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2177,7 +2180,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2195,13 @@
         <v>1923947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2220,13 +2223,13 @@
         <v>1923947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2326,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2344,13 @@
         <v>10526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2369,13 +2372,13 @@
         <v>10526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2393,13 @@
         <v>470655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2418,13 +2421,13 @@
         <v>470655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2542,13 @@
         <v>124409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2567,13 +2570,13 @@
         <v>124409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2591,13 @@
         <v>3293181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2616,13 +2619,13 @@
         <v>3293181</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66E761-5D9D-4EA7-BA03-E55A4930F392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDF726-7AEC-4B0A-B313-7191F5E209BD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2712,7 +2715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2853,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2871,13 @@
         <v>61600</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2896,13 +2899,13 @@
         <v>61600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2920,13 @@
         <v>692747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2945,13 +2948,13 @@
         <v>692747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3069,13 @@
         <v>39615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3094,13 +3097,13 @@
         <v>39615</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3118,13 @@
         <v>2036770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3143,13 +3146,13 @@
         <v>2036770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3249,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3267,13 @@
         <v>7787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3292,13 +3295,13 @@
         <v>7787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3316,7 @@
         <v>539099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>93</v>
@@ -3341,7 +3344,7 @@
         <v>539099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>93</v>
@@ -3618,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FE5A67-9E40-46FD-BB8F-A13F18B1B5A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9201C83-D225-4957-92B5-75777F63EEC8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3940,13 +3943,13 @@
         <v>9527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3968,13 +3971,13 @@
         <v>9527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3992,13 @@
         <v>84502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4017,13 +4020,13 @@
         <v>84502</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4041,13 @@
         <v>2065381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4066,13 +4069,13 @@
         <v>2065381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4141,13 @@
         <v>2467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4166,13 +4169,13 @@
         <v>2467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4190,13 @@
         <v>32216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4215,13 +4218,13 @@
         <v>32216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4239,13 @@
         <v>635849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4264,13 +4267,13 @@
         <v>635849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4339,13 @@
         <v>13070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4364,13 +4367,13 @@
         <v>13070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4388,13 @@
         <v>193720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4413,13 +4416,13 @@
         <v>193720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4437,13 @@
         <v>3162400</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4462,13 +4465,13 @@
         <v>3162400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1434-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1457CA-C729-46E2-AAD4-98182A8DAC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D70A67-6D53-43F3-A546-D97E48372102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECCFEFA4-14C8-499E-B1B1-B4F174837494}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0C13811-6BC3-4630-9B58-D9B0ABC3727D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="136">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,19 +146,19 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -167,19 +167,19 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -194,19 +194,19 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -215,133 +215,139 @@
     <t>2,04%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
@@ -852,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79725282-C3D0-4DD3-8FF9-7141AFEDC988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6E449-CB1F-4BDF-9AC4-E799BCE97E82}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,7 +1275,7 @@
         <v>1627</v>
       </c>
       <c r="D10" s="7">
-        <v>1672427</v>
+        <v>1672428</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>29</v>
@@ -1297,7 +1303,7 @@
         <v>1627</v>
       </c>
       <c r="N10" s="7">
-        <v>1672427</v>
+        <v>1672428</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>29</v>
@@ -1318,7 +1324,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
@@ -1346,7 +1352,7 @@
         <v>1649</v>
       </c>
       <c r="N11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>23</v>
@@ -1665,7 +1671,7 @@
         <v>3103</v>
       </c>
       <c r="D18" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -1693,7 +1699,7 @@
         <v>3103</v>
       </c>
       <c r="N18" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -1714,7 +1720,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>23</v>
@@ -1742,7 +1748,7 @@
         <v>3214</v>
       </c>
       <c r="N19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>23</v>
@@ -1775,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60F86E5-9317-484D-BAC8-85F9CAC9D46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB36627-289B-4D25-8D03-DF08BFE37301}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2698,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDF726-7AEC-4B0A-B313-7191F5E209BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7D98A3-2DEA-4394-8399-9167BB7F6060}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,13 +3273,13 @@
         <v>7787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3295,13 +3301,13 @@
         <v>7787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3322,13 @@
         <v>539099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3344,13 +3350,13 @@
         <v>539099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>109002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3493,13 +3499,13 @@
         <v>109002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3520,13 @@
         <v>3268616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3542,13 +3548,13 @@
         <v>3268616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9201C83-D225-4957-92B5-75777F63EEC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4D483-453E-45C9-ABB9-D09B13614233}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3638,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3745,13 +3751,13 @@
         <v>1076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3773,13 +3779,13 @@
         <v>1076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>77002</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3822,13 +3828,13 @@
         <v>77002</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>461169</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3871,13 +3877,13 @@
         <v>461169</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,10 +3952,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3974,10 +3980,10 @@
         <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>84502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4020,13 +4026,13 @@
         <v>84502</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4047,13 @@
         <v>2065381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4069,13 +4075,13 @@
         <v>2065381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4147,13 @@
         <v>2467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4169,13 +4175,13 @@
         <v>2467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4196,13 @@
         <v>32216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4218,13 +4224,13 @@
         <v>32216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4245,13 @@
         <v>635849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4267,13 +4273,13 @@
         <v>635849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>13070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4367,13 +4373,13 @@
         <v>13070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4394,13 @@
         <v>193720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4416,13 +4422,13 @@
         <v>193720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4443,13 @@
         <v>3162400</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4465,13 +4471,13 @@
         <v>3162400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1434-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D70A67-6D53-43F3-A546-D97E48372102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9005B79E-500D-4627-9BD3-3DF8F801F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0C13811-6BC3-4630-9B58-D9B0ABC3727D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0D2AED-6AD7-4890-BA0A-34714D3C8738}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -71,43 +71,31 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>No recogida</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -116,70 +104,61 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -188,115 +167,97 @@
     <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -308,145 +269,118 @@
     <t>97,37%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
 </sst>
 </file>
@@ -858,8 +792,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6E449-CB1F-4BDF-9AC4-E799BCE97E82}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145CE326-E0DC-4CDE-9303-611D1E34AF62}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -976,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>73389</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1004,10 +938,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>73389</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1025,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>959</v>
       </c>
       <c r="D5" s="7">
-        <v>73389</v>
+        <v>958334</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1053,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>79</v>
+        <v>959</v>
       </c>
       <c r="N5" s="7">
-        <v>73389</v>
+        <v>958334</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1071,22 +1005,22 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>959</v>
+        <v>1038</v>
       </c>
       <c r="D6" s="7">
-        <v>958334</v>
+        <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1102,37 +1036,39 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>959</v>
+        <v>1038</v>
       </c>
       <c r="N6" s="7">
-        <v>958334</v>
+        <v>1031723</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20985</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1038</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1031723</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -1151,42 +1087,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>1038</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>1031723</v>
+        <v>20985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1627</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1672427</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1202,40 +1136,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1627</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1672427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>20985</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1251,40 +1185,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>22</v>
+        <v>1649</v>
       </c>
       <c r="N9" s="7">
-        <v>20985</v>
+        <v>1693412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11814</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1627</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1672428</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1300,40 +1236,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1627</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>1672428</v>
+        <v>11814</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1649</v>
+        <v>517</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>539594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1349,42 +1285,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1649</v>
+        <v>517</v>
       </c>
       <c r="N11" s="7">
-        <v>1693413</v>
+        <v>539594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1400,31 +1334,33 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>551408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7">
-        <v>11814</v>
+        <v>106188</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>34</v>
@@ -1449,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>11814</v>
+        <v>106188</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>34</v>
@@ -1467,13 +1403,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>517</v>
+        <v>3103</v>
       </c>
       <c r="D14" s="7">
-        <v>539594</v>
+        <v>3170356</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>37</v>
@@ -1498,10 +1434,10 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>517</v>
+        <v>3103</v>
       </c>
       <c r="N14" s="7">
-        <v>539594</v>
+        <v>3170356</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1519,19 +1455,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>527</v>
+        <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>551408</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1547,242 +1483,44 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>527</v>
+        <v>3214</v>
       </c>
       <c r="N15" s="7">
-        <v>551408</v>
+        <v>3276544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>111</v>
-      </c>
-      <c r="D17" s="7">
-        <v>106188</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
-        <v>111</v>
-      </c>
-      <c r="N17" s="7">
-        <v>106188</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3103</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB36627-289B-4D25-8D03-DF08BFE37301}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38A9F62-13BD-4897-8948-1D848AE7B403}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1798,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1899,19 +1637,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>73873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1927,19 +1665,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>73873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,19 +1686,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>840</v>
       </c>
       <c r="D5" s="7">
-        <v>73873</v>
+        <v>898578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1976,40 +1714,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>840</v>
       </c>
       <c r="N5" s="7">
-        <v>73873</v>
+        <v>898578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>840</v>
+        <v>907</v>
       </c>
       <c r="D6" s="7">
-        <v>898579</v>
+        <v>972451</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2025,40 +1763,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>840</v>
+        <v>907</v>
       </c>
       <c r="N6" s="7">
-        <v>898579</v>
+        <v>972451</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>907</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>972452</v>
+        <v>40010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2074,42 +1814,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>907</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>972452</v>
+        <v>40010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1923947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2125,40 +1863,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1923947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>1856</v>
       </c>
       <c r="D9" s="7">
-        <v>40010</v>
+        <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2174,40 +1912,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>1856</v>
       </c>
       <c r="N9" s="7">
-        <v>40010</v>
+        <v>1963957</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1818</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>1923947</v>
+        <v>10526</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2223,40 +1963,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1818</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>1923947</v>
+        <v>10526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1856</v>
+        <v>431</v>
       </c>
       <c r="D11" s="7">
-        <v>1963957</v>
+        <v>470655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2272,42 +2012,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1856</v>
+        <v>431</v>
       </c>
       <c r="N11" s="7">
-        <v>1963957</v>
+        <v>470655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2323,40 +2061,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>481181</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>10526</v>
+        <v>124409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2372,40 +2112,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="N13" s="7">
-        <v>10526</v>
+        <v>124409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>431</v>
+        <v>3089</v>
       </c>
       <c r="D14" s="7">
-        <v>470655</v>
+        <v>3293181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2421,19 +2161,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>431</v>
+        <v>3089</v>
       </c>
       <c r="N14" s="7">
-        <v>470655</v>
+        <v>3293181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,19 +2182,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>438</v>
+        <v>3201</v>
       </c>
       <c r="D15" s="7">
-        <v>481181</v>
+        <v>3417590</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2470,242 +2210,44 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>438</v>
+        <v>3201</v>
       </c>
       <c r="N15" s="7">
-        <v>481181</v>
+        <v>3417590</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>112</v>
-      </c>
-      <c r="D17" s="7">
-        <v>124409</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
-        <v>112</v>
-      </c>
-      <c r="N17" s="7">
-        <v>124409</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3089</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3293181</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3089</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3293181</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3417590</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3201</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3417590</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7D98A3-2DEA-4394-8399-9167BB7F6060}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7253E-5A12-4656-9829-1AC91DADBE97}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,19 +2364,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>61600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2850,19 +2392,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>61600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,19 +2413,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
+        <v>693</v>
+      </c>
+      <c r="D5" s="7">
+        <v>692747</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="7">
-        <v>61600</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2899,40 +2441,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
+        <v>693</v>
+      </c>
+      <c r="N5" s="7">
+        <v>692747</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="7">
-        <v>61600</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="D6" s="7">
-        <v>692747</v>
+        <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2948,40 +2490,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="N6" s="7">
-        <v>692747</v>
+        <v>754347</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>762</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>754347</v>
+        <v>39615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2997,42 +2541,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>762</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>754347</v>
+        <v>39615</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1914</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2036770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3048,40 +2590,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1914</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2036770</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="7">
-        <v>39615</v>
+        <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3097,40 +2639,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>1952</v>
       </c>
       <c r="N9" s="7">
-        <v>39615</v>
+        <v>2076385</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1914</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>2036770</v>
+        <v>7787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3146,40 +2690,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1914</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2036770</v>
+        <v>7787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1952</v>
+        <v>494</v>
       </c>
       <c r="D11" s="7">
-        <v>2076385</v>
+        <v>539099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3195,42 +2739,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1952</v>
+        <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>2076385</v>
+        <v>539099</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3246,40 +2788,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>546886</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>7787</v>
+        <v>109002</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3295,40 +2839,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>7787</v>
+        <v>109002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>494</v>
+        <v>3101</v>
       </c>
       <c r="D14" s="7">
-        <v>539099</v>
+        <v>3268616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3344,19 +2888,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>494</v>
+        <v>3101</v>
       </c>
       <c r="N14" s="7">
-        <v>539099</v>
+        <v>3268616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,19 +2909,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>3215</v>
       </c>
       <c r="D15" s="7">
-        <v>546886</v>
+        <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3393,242 +2937,44 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>501</v>
+        <v>3215</v>
       </c>
       <c r="N15" s="7">
-        <v>546886</v>
+        <v>3377618</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>114</v>
-      </c>
-      <c r="D17" s="7">
-        <v>109002</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
-        <v>114</v>
-      </c>
-      <c r="N17" s="7">
-        <v>109002</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3101</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3268616</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3101</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3268616</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3215</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3377618</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3215</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3377618</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4D483-453E-45C9-ABB9-D09B13614233}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5F6351-C109-4ED0-B8FB-E7BE6FBC9380}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3644,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3745,19 +3091,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>1076</v>
+        <v>77002</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3773,19 +3119,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>1076</v>
+        <v>77002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,19 +3140,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>119</v>
+        <v>569</v>
       </c>
       <c r="D5" s="7">
-        <v>77002</v>
+        <v>461169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3822,40 +3168,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>569</v>
       </c>
       <c r="N5" s="7">
-        <v>77002</v>
+        <v>461169</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>569</v>
+        <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>461169</v>
+        <v>538171</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3871,40 +3217,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>569</v>
+        <v>688</v>
       </c>
       <c r="N6" s="7">
-        <v>461169</v>
+        <v>538171</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>689</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>539247</v>
+        <v>84502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3920,42 +3268,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>689</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>539247</v>
+        <v>84502</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>1868</v>
       </c>
       <c r="D8" s="7">
-        <v>9527</v>
+        <v>2065381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3971,40 +3317,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>1868</v>
       </c>
       <c r="N8" s="7">
-        <v>9527</v>
+        <v>2065381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>115</v>
+        <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>84502</v>
+        <v>2149883</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4020,40 +3366,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>115</v>
+        <v>1983</v>
       </c>
       <c r="N9" s="7">
-        <v>84502</v>
+        <v>2149883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1868</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>2065381</v>
+        <v>32216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4069,40 +3417,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>1868</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>2065381</v>
+        <v>32216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1989</v>
+        <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>2159410</v>
+        <v>635849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4118,42 +3466,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1989</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>2159410</v>
+        <v>635849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>2467</v>
+        <v>668065</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4169,40 +3515,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>676</v>
       </c>
       <c r="N12" s="7">
-        <v>2467</v>
+        <v>668065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>32216</v>
+        <v>193720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4218,40 +3566,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="N13" s="7">
-        <v>32216</v>
+        <v>193720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>633</v>
+        <v>3070</v>
       </c>
       <c r="D14" s="7">
-        <v>635849</v>
+        <v>3162400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4267,19 +3615,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>633</v>
+        <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>635849</v>
+        <v>3162400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,19 +3636,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>678</v>
+        <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>670532</v>
+        <v>3356120</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4316,234 +3664,36 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>678</v>
+        <v>3347</v>
       </c>
       <c r="N15" s="7">
-        <v>670532</v>
+        <v>3356120</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
-        <v>13070</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13070</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>277</v>
-      </c>
-      <c r="D17" s="7">
-        <v>193720</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
-        <v>277</v>
-      </c>
-      <c r="N17" s="7">
-        <v>193720</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3070</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3162400</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3070</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3162400</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3356</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3369190</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3356</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3369190</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
+      <c r="A16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1434-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9005B79E-500D-4627-9BD3-3DF8F801F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855B4059-4B8A-49C7-8333-635B31642D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0D2AED-6AD7-4890-BA0A-34714D3C8738}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F8840496-7E2D-4AA2-B6C9-4A0B1F620C6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -311,76 +311,76 @@
     <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145CE326-E0DC-4CDE-9303-611D1E34AF62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA05D3AF-19CE-4F8F-8755-B67459C24A3B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>1627</v>
       </c>
       <c r="D8" s="7">
-        <v>1672427</v>
+        <v>1672428</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -1139,7 +1139,7 @@
         <v>1627</v>
       </c>
       <c r="N8" s="7">
-        <v>1672427</v>
+        <v>1672428</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1160,7 +1160,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1188,7 +1188,7 @@
         <v>1649</v>
       </c>
       <c r="N9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1409,7 +1409,7 @@
         <v>3103</v>
       </c>
       <c r="D14" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>37</v>
@@ -1437,7 +1437,7 @@
         <v>3103</v>
       </c>
       <c r="N14" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1458,7 +1458,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1486,7 +1486,7 @@
         <v>3214</v>
       </c>
       <c r="N15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38A9F62-13BD-4897-8948-1D848AE7B403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E355D028-2CBF-4ED5-8C67-1B584F211B4E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D7253E-5A12-4656-9829-1AC91DADBE97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F244B1-906C-4CBC-B64C-421DD7372E5E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5F6351-C109-4ED0-B8FB-E7BE6FBC9380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53690D9C-BC19-4933-85EB-7FFBE4AACA04}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,7 +3094,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>77002</v>
+        <v>71634</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>90</v>
@@ -3122,7 +3122,7 @@
         <v>119</v>
       </c>
       <c r="N4" s="7">
-        <v>77002</v>
+        <v>71634</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>90</v>
@@ -3143,7 +3143,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="7">
-        <v>461169</v>
+        <v>439952</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>93</v>
@@ -3171,7 +3171,7 @@
         <v>569</v>
       </c>
       <c r="N5" s="7">
-        <v>461169</v>
+        <v>439952</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>93</v>
@@ -3192,7 +3192,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>538171</v>
+        <v>511586</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3220,7 +3220,7 @@
         <v>688</v>
       </c>
       <c r="N6" s="7">
-        <v>538171</v>
+        <v>511586</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3243,7 +3243,7 @@
         <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>84502</v>
+        <v>78045</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
@@ -3271,7 +3271,7 @@
         <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>84502</v>
+        <v>78045</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>96</v>
@@ -3292,7 +3292,7 @@
         <v>1868</v>
       </c>
       <c r="D8" s="7">
-        <v>2065381</v>
+        <v>2200608</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>99</v>
@@ -3320,7 +3320,7 @@
         <v>1868</v>
       </c>
       <c r="N8" s="7">
-        <v>2065381</v>
+        <v>2200608</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>99</v>
@@ -3341,7 +3341,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2149883</v>
+        <v>2278653</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>1983</v>
       </c>
       <c r="N9" s="7">
-        <v>2149883</v>
+        <v>2278653</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3392,7 +3392,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>32216</v>
+        <v>29926</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>102</v>
@@ -3420,7 +3420,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>32216</v>
+        <v>29926</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>102</v>
@@ -3441,7 +3441,7 @@
         <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>635849</v>
+        <v>611918</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>105</v>
@@ -3469,7 +3469,7 @@
         <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>635849</v>
+        <v>611918</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>105</v>
@@ -3490,7 +3490,7 @@
         <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>668065</v>
+        <v>641844</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3518,7 +3518,7 @@
         <v>676</v>
       </c>
       <c r="N12" s="7">
-        <v>668065</v>
+        <v>641844</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3541,7 +3541,7 @@
         <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>193720</v>
+        <v>179605</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>108</v>
@@ -3569,7 +3569,7 @@
         <v>277</v>
       </c>
       <c r="N13" s="7">
-        <v>193720</v>
+        <v>179605</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>108</v>
@@ -3590,7 +3590,7 @@
         <v>3070</v>
       </c>
       <c r="D14" s="7">
-        <v>3162400</v>
+        <v>3252478</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>111</v>
@@ -3618,7 +3618,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>3162400</v>
+        <v>3252478</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>111</v>
@@ -3639,7 +3639,7 @@
         <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>3356120</v>
+        <v>3432083</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3667,7 +3667,7 @@
         <v>3347</v>
       </c>
       <c r="N15" s="7">
-        <v>3356120</v>
+        <v>3432083</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
